--- a/fuentes/contenidos/grado09/guion02/ESCALETA_LE_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/ESCALETA_LE_09_02_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado09\guion02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14988" windowHeight="8278"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21400" windowHeight="12380"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,20 +13,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$45</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="295">
   <si>
     <t>Asignatura</t>
   </si>
@@ -864,9 +859,6 @@
     <t xml:space="preserve">Literatura latinoamericana de la Conquista y la Colonia </t>
   </si>
   <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: la imagen fotográfica en los artículos periosísticos </t>
-  </si>
-  <si>
     <t>Actividad para reconocer la importancia de la imagen en los medios impresos</t>
   </si>
   <si>
@@ -882,9 +874,6 @@
     <t>Recurso M101A-05</t>
   </si>
   <si>
-    <t>Recurso M101A-06</t>
-  </si>
-  <si>
     <t>Recurso M101AP-01</t>
   </si>
   <si>
@@ -910,13 +899,25 @@
   </si>
   <si>
     <t>RF_01_02_CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: la imagen fotográfica en los artículos periodísticos </t>
+  </si>
+  <si>
+    <t>Recurso M101AP</t>
+  </si>
+  <si>
+    <t>Actividades para repasar los contenidos del tema La literatura latinoamericana de la Conquista y la Colonia</t>
+  </si>
+  <si>
+    <t>Deben incluirse 10 preguntas abiertas:3 sobre literatura; 2 sobre semántica, 2 de expresión oral, 2 de Comunicación y 1 de ética y comunicación.  Debe marcarse en el greco Gestor de actividades como actividad didáctica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +959,12 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1300,7 +1307,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1331,8 +1338,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1349,21 +1354,87 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1662,7 +1733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1670,142 +1741,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.86328125" style="12" customWidth="1"/>
-    <col min="4" max="6" width="19" style="12" customWidth="1"/>
-    <col min="7" max="7" width="63.3984375" style="12" customWidth="1"/>
-    <col min="8" max="9" width="10.86328125" style="2"/>
-    <col min="10" max="10" width="92.265625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="17.73046875" style="45" customWidth="1"/>
-    <col min="12" max="12" width="18.73046875" style="45" customWidth="1"/>
-    <col min="13" max="13" width="14" style="45" customWidth="1"/>
-    <col min="14" max="14" width="15.1328125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="43" customWidth="1"/>
+    <col min="5" max="6" width="19" style="43" customWidth="1"/>
+    <col min="7" max="7" width="63.33203125" style="12" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="92.33203125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="14" style="39" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="12" customWidth="1"/>
     <col min="15" max="15" width="60" style="12" customWidth="1"/>
-    <col min="16" max="16" width="7.06640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7" style="2" customWidth="1"/>
     <col min="17" max="17" width="5" style="12" customWidth="1"/>
     <col min="18" max="18" width="5.6640625" style="12" customWidth="1"/>
     <col min="19" max="19" width="15.33203125" style="12" customWidth="1"/>
     <col min="20" max="20" width="20.6640625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="12.53125" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.6640625" style="12"/>
+    <col min="21" max="21" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:21" ht="15" thickBot="1">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="69" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="14" customFormat="1" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="50"/>
+    <row r="2" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" thickBot="1">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="13" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+    </row>
+    <row r="3" spans="1:21" ht="42">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="18" t="s">
         <v>92</v>
       </c>
       <c r="H3" s="9">
@@ -1814,26 +1886,26 @@
       <c r="I3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21" t="s">
         <v>249</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="22">
         <v>6</v>
       </c>
       <c r="R3" s="6" t="s">
@@ -1845,26 +1917,26 @@
       <c r="T3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:21" ht="42">
+      <c r="A4" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="27" t="s">
         <v>95</v>
       </c>
       <c r="H4" s="10">
@@ -1873,26 +1945,26 @@
       <c r="I4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="32" t="s">
+      <c r="N4" s="21"/>
+      <c r="O4" s="30" t="s">
         <v>250</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="31">
         <v>6</v>
       </c>
       <c r="R4" s="5" t="s">
@@ -1904,26 +1976,26 @@
       <c r="T4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="U4" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:21" ht="42">
+      <c r="A5" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="27" t="s">
         <v>102</v>
       </c>
       <c r="H5" s="10">
@@ -1932,26 +2004,26 @@
       <c r="I5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="32" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="30" t="s">
         <v>251</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="31">
         <v>6</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -1963,26 +2035,26 @@
       <c r="T5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="U5" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:21" ht="42">
+      <c r="A6" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="27" t="s">
         <v>107</v>
       </c>
       <c r="H6" s="10">
@@ -1991,26 +2063,26 @@
       <c r="I6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="32" t="s">
+      <c r="N6" s="21"/>
+      <c r="O6" s="30" t="s">
         <v>252</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="31">
         <v>6</v>
       </c>
       <c r="R6" s="5" t="s">
@@ -2022,26 +2094,26 @@
       <c r="T6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="U6" s="34" t="s">
+      <c r="U6" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:21" ht="42">
+      <c r="A7" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29" t="s">
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="27" t="s">
         <v>108</v>
       </c>
       <c r="H7" s="10">
@@ -2050,26 +2122,26 @@
       <c r="I7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="32" t="s">
+      <c r="N7" s="21"/>
+      <c r="O7" s="30" t="s">
         <v>253</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="31">
         <v>6</v>
       </c>
       <c r="R7" s="5" t="s">
@@ -2081,26 +2153,26 @@
       <c r="T7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="U7" s="34" t="s">
+      <c r="U7" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:21" ht="42">
+      <c r="A8" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29" t="s">
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="27" t="s">
         <v>111</v>
       </c>
       <c r="H8" s="10">
@@ -2109,26 +2181,26 @@
       <c r="I8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="32" t="s">
+      <c r="N8" s="21"/>
+      <c r="O8" s="30" t="s">
         <v>113</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="31">
         <v>6</v>
       </c>
       <c r="R8" s="5" t="s">
@@ -2140,26 +2212,26 @@
       <c r="T8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="U8" s="34" t="s">
+      <c r="U8" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:21" ht="28">
+      <c r="A9" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="29" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="27" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="10">
@@ -2168,26 +2240,26 @@
       <c r="I9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23" t="s">
+      <c r="M9" s="21"/>
+      <c r="N9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="30" t="s">
         <v>254</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="22">
         <v>6</v>
       </c>
       <c r="R9" s="6" t="s">
@@ -2199,30 +2271,30 @@
       <c r="T9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="U9" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:21" ht="42">
+      <c r="A10" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="27" t="s">
         <v>123</v>
       </c>
       <c r="H10" s="10">
@@ -2231,26 +2303,26 @@
       <c r="I10" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="32" t="s">
+      <c r="N10" s="21"/>
+      <c r="O10" s="30" t="s">
         <v>255</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="31">
         <v>6</v>
       </c>
       <c r="R10" s="5" t="s">
@@ -2262,12 +2334,12 @@
       <c r="T10" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="U10" s="34" t="s">
+      <c r="U10" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:21" hidden="1">
+      <c r="A11" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -2276,16 +2348,16 @@
       <c r="C11" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="27" t="s">
         <v>127</v>
       </c>
       <c r="H11" s="10">
@@ -2294,26 +2366,26 @@
       <c r="I11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="32" t="s">
+      <c r="N11" s="21"/>
+      <c r="O11" s="30" t="s">
         <v>255</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="31">
         <v>6</v>
       </c>
       <c r="R11" s="5" t="s">
@@ -2325,58 +2397,58 @@
       <c r="T11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="U11" s="34" t="s">
+      <c r="U11" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:21" ht="42">
+      <c r="A12" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="27" t="s">
         <v>134</v>
       </c>
       <c r="H12" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23" t="s">
+      <c r="M12" s="21"/>
+      <c r="N12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="30" t="s">
         <v>256</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="31">
         <v>6</v>
       </c>
       <c r="R12" s="5" t="s">
@@ -2388,58 +2460,58 @@
       <c r="T12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="U12" s="34" t="s">
+      <c r="U12" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:21" ht="42">
+      <c r="A13" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="27" t="s">
         <v>135</v>
       </c>
       <c r="H13" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="32" t="s">
+      <c r="N13" s="21"/>
+      <c r="O13" s="30" t="s">
         <v>255</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="31">
         <v>6</v>
       </c>
       <c r="R13" s="5" t="s">
@@ -2451,58 +2523,58 @@
       <c r="T13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="U13" s="34" t="s">
+      <c r="U13" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:21" ht="42">
+      <c r="A14" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="27" t="s">
         <v>138</v>
       </c>
       <c r="H14" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="32" t="s">
+      <c r="N14" s="21"/>
+      <c r="O14" s="30" t="s">
         <v>255</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="31">
         <v>6</v>
       </c>
       <c r="R14" s="5" t="s">
@@ -2514,58 +2586,58 @@
       <c r="T14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U14" s="34" t="s">
+      <c r="U14" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:21" ht="70">
+      <c r="A15" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="27" t="s">
         <v>142</v>
       </c>
       <c r="H15" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23" t="s">
+      <c r="M15" s="21"/>
+      <c r="N15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="32" t="s">
+      <c r="O15" s="30" t="s">
         <v>257</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="31">
         <v>6</v>
       </c>
       <c r="R15" s="5" t="s">
@@ -2577,58 +2649,58 @@
       <c r="T15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="U15" s="34" t="s">
+      <c r="U15" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:21" ht="70">
+      <c r="A16" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="27" t="s">
         <v>146</v>
       </c>
       <c r="H16" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="32" t="s">
+      <c r="N16" s="21"/>
+      <c r="O16" s="30" t="s">
         <v>255</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q16" s="31">
         <v>6</v>
       </c>
       <c r="R16" s="5" t="s">
@@ -2640,56 +2712,56 @@
       <c r="T16" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="U16" s="34" t="s">
+      <c r="U16" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:21" ht="28">
+      <c r="A17" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29" t="s">
+      <c r="F17" s="48"/>
+      <c r="G17" s="27" t="s">
         <v>150</v>
       </c>
       <c r="H17" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="32" t="s">
+      <c r="N17" s="21"/>
+      <c r="O17" s="30" t="s">
         <v>255</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="31">
         <v>6</v>
       </c>
       <c r="R17" s="5" t="s">
@@ -2701,115 +2773,115 @@
       <c r="T17" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="U17" s="34" t="s">
+      <c r="U17" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:21" ht="28">
+      <c r="A18" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29" t="s">
+      <c r="F18" s="48"/>
+      <c r="G18" s="27" t="s">
         <v>150</v>
       </c>
       <c r="H18" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="32" t="s">
+      <c r="N18" s="21"/>
+      <c r="O18" s="30" t="s">
         <v>273</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="31">
         <v>6</v>
       </c>
       <c r="R18" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="S18" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="U18" s="34" t="s">
+      <c r="U18" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:21" ht="28">
+      <c r="A19" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29" t="s">
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="27" t="s">
         <v>154</v>
       </c>
       <c r="H19" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23" t="s">
+      <c r="M19" s="21"/>
+      <c r="N19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="32" t="s">
+      <c r="O19" s="30" t="s">
         <v>156</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="31">
         <v>6</v>
       </c>
       <c r="R19" s="5" t="s">
@@ -2821,52 +2893,52 @@
       <c r="T19" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="U19" s="34" t="s">
+      <c r="U19" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:21" ht="28">
+      <c r="A20" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29" t="s">
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="27" t="s">
         <v>158</v>
       </c>
       <c r="H20" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="32" t="s">
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="30" t="s">
         <v>258</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="31" t="s">
         <v>160</v>
       </c>
       <c r="R20" s="5" t="s">
@@ -2878,52 +2950,52 @@
       <c r="T20" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="U20" s="34" t="s">
+      <c r="U20" s="32" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:21" ht="28">
+      <c r="A21" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29" t="s">
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="27" t="s">
         <v>166</v>
       </c>
       <c r="H21" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="32" t="s">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="30" t="s">
         <v>259</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="Q21" s="31">
         <v>5</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -2935,56 +3007,56 @@
       <c r="T21" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="U21" s="34" t="s">
+      <c r="U21" s="32" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:21" ht="28">
+      <c r="A22" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29" t="s">
+      <c r="F22" s="48"/>
+      <c r="G22" s="27" t="s">
         <v>274</v>
       </c>
       <c r="H22" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="32" t="s">
+      <c r="N22" s="21"/>
+      <c r="O22" s="30" t="s">
         <v>275</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="31">
         <v>6</v>
       </c>
       <c r="R22" s="5" t="s">
@@ -2996,28 +3068,28 @@
       <c r="T22" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="U22" s="34" t="s">
+      <c r="U22" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:21" ht="28">
+      <c r="A23" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29" t="s">
+      <c r="F23" s="48"/>
+      <c r="G23" s="27" t="s">
         <v>174</v>
       </c>
       <c r="H23" s="10">
@@ -3026,26 +3098,26 @@
       <c r="I23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="32" t="s">
+      <c r="N23" s="21"/>
+      <c r="O23" s="30" t="s">
         <v>260</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="31">
         <v>6</v>
       </c>
       <c r="R23" s="5" t="s">
@@ -3057,28 +3129,28 @@
       <c r="T23" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="U23" s="34" t="s">
+      <c r="U23" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:21" ht="28">
+      <c r="A24" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29" t="s">
+      <c r="F24" s="48"/>
+      <c r="G24" s="27" t="s">
         <v>178</v>
       </c>
       <c r="H24" s="10">
@@ -3087,26 +3159,26 @@
       <c r="I24" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23" t="s">
+      <c r="M24" s="21"/>
+      <c r="N24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O24" s="32" t="s">
+      <c r="O24" s="30" t="s">
         <v>261</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="31">
         <v>6</v>
       </c>
       <c r="R24" s="5" t="s">
@@ -3118,28 +3190,28 @@
       <c r="T24" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="U24" s="34" t="s">
+      <c r="U24" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:21" ht="28">
+      <c r="A25" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29" t="s">
+      <c r="F25" s="48"/>
+      <c r="G25" s="27" t="s">
         <v>181</v>
       </c>
       <c r="H25" s="10">
@@ -3148,26 +3220,26 @@
       <c r="I25" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="23"/>
-      <c r="O25" s="32" t="s">
+      <c r="N25" s="21"/>
+      <c r="O25" s="30" t="s">
         <v>262</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="31">
         <v>6</v>
       </c>
       <c r="R25" s="5" t="s">
@@ -3179,26 +3251,26 @@
       <c r="T25" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="U25" s="34" t="s">
+      <c r="U25" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="1:21" ht="42">
+      <c r="A26" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29" t="s">
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="27" t="s">
         <v>185</v>
       </c>
       <c r="H26" s="10">
@@ -3207,57 +3279,57 @@
       <c r="I26" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K26" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23" t="s">
+      <c r="M26" s="21"/>
+      <c r="N26" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="32" t="s">
+      <c r="O26" s="30" t="s">
         <v>263</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="31">
         <v>6</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S26" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="U26" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="T26" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U26" s="34" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A27" s="26" t="s">
+    </row>
+    <row r="27" spans="1:21" ht="42">
+      <c r="A27" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29" t="s">
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="27" t="s">
         <v>187</v>
       </c>
       <c r="H27" s="10">
@@ -3266,26 +3338,26 @@
       <c r="I27" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M27" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="32" t="s">
+      <c r="N27" s="21"/>
+      <c r="O27" s="30" t="s">
         <v>264</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="31">
         <v>6</v>
       </c>
       <c r="R27" s="5" t="s">
@@ -3297,28 +3369,28 @@
       <c r="T27" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="U27" s="34" t="s">
+      <c r="U27" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:21" ht="42">
+      <c r="A28" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29" t="s">
+      <c r="F28" s="48"/>
+      <c r="G28" s="27" t="s">
         <v>191</v>
       </c>
       <c r="H28" s="10">
@@ -3327,26 +3399,26 @@
       <c r="I28" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J28" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="32" t="s">
+      <c r="L28" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23" t="s">
+      <c r="M28" s="21"/>
+      <c r="N28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="O28" s="32" t="s">
+      <c r="O28" s="30" t="s">
         <v>265</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="Q28" s="31">
         <v>6</v>
       </c>
       <c r="R28" s="5" t="s">
@@ -3358,12 +3430,12 @@
       <c r="T28" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="U28" s="34" t="s">
+      <c r="U28" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="26" t="s">
+    <row r="29" spans="1:21" hidden="1">
+      <c r="A29" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -3372,14 +3444,14 @@
       <c r="C29" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="27" t="s">
         <v>194</v>
       </c>
       <c r="H29" s="10">
@@ -3388,26 +3460,26 @@
       <c r="I29" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="23" t="s">
+      <c r="M29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="32" t="s">
+      <c r="N29" s="21"/>
+      <c r="O29" s="30" t="s">
         <v>266</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="Q29" s="31">
         <v>6</v>
       </c>
       <c r="R29" s="5" t="s">
@@ -3419,56 +3491,56 @@
       <c r="T29" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="U29" s="34" t="s">
+      <c r="U29" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A30" s="26" t="s">
+    <row r="30" spans="1:21" ht="42">
+      <c r="A30" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29" t="s">
+      <c r="F30" s="48"/>
+      <c r="G30" s="27" t="s">
         <v>198</v>
       </c>
       <c r="H30" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="23" t="s">
+      <c r="M30" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="23"/>
-      <c r="O30" s="32" t="s">
+      <c r="N30" s="21"/>
+      <c r="O30" s="30" t="s">
         <v>267</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="33">
+      <c r="Q30" s="31">
         <v>6</v>
       </c>
       <c r="R30" s="5" t="s">
@@ -3480,56 +3552,56 @@
       <c r="T30" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="U30" s="34" t="s">
+      <c r="U30" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A31" s="26" t="s">
+    <row r="31" spans="1:21" ht="42">
+      <c r="A31" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="38" t="s">
+      <c r="F31" s="48"/>
+      <c r="G31" s="35" t="s">
         <v>201</v>
       </c>
       <c r="H31" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="32" t="s">
+      <c r="L31" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="23" t="s">
+      <c r="M31" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="23"/>
-      <c r="O31" s="32" t="s">
+      <c r="N31" s="21"/>
+      <c r="O31" s="30" t="s">
         <v>266</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="31">
         <v>6</v>
       </c>
       <c r="R31" s="5" t="s">
@@ -3541,56 +3613,56 @@
       <c r="T31" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="U31" s="34" t="s">
+      <c r="U31" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A32" s="26" t="s">
+    <row r="32" spans="1:21" ht="42">
+      <c r="A32" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29" t="s">
+      <c r="F32" s="48"/>
+      <c r="G32" s="27" t="s">
         <v>204</v>
       </c>
       <c r="H32" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="J32" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="23" t="s">
+      <c r="M32" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="32" t="s">
+      <c r="N32" s="21"/>
+      <c r="O32" s="30" t="s">
         <v>266</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="33">
+      <c r="Q32" s="31">
         <v>6</v>
       </c>
       <c r="R32" s="5" t="s">
@@ -3602,117 +3674,117 @@
       <c r="T32" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="U32" s="34" t="s">
+      <c r="U32" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A33" s="26" t="s">
+    <row r="33" spans="1:21" ht="42">
+      <c r="A33" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29" t="s">
-        <v>277</v>
+      <c r="F33" s="48"/>
+      <c r="G33" s="27" t="s">
+        <v>291</v>
       </c>
       <c r="H33" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J33" s="30" t="s">
+      <c r="J33" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" s="21"/>
+      <c r="O33" s="30" t="s">
         <v>278</v>
-      </c>
-      <c r="K33" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L33" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="32" t="s">
-        <v>279</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="Q33" s="31">
         <v>6</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>97</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="U33" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="U33" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:21" ht="42">
+      <c r="A34" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29" t="s">
+      <c r="F34" s="48"/>
+      <c r="G34" s="27" t="s">
         <v>207</v>
       </c>
       <c r="H34" s="10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J34" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="K34" s="31" t="s">
+      <c r="K34" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="32" t="s">
+      <c r="L34" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="23" t="s">
+      <c r="M34" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="32" t="s">
+      <c r="N34" s="21"/>
+      <c r="O34" s="30" t="s">
         <v>266</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="33">
+      <c r="Q34" s="31">
         <v>6</v>
       </c>
       <c r="R34" s="5" t="s">
@@ -3724,54 +3796,54 @@
       <c r="T34" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="U34" s="34" t="s">
+      <c r="U34" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A35" s="26" t="s">
+    <row r="35" spans="1:21" ht="28">
+      <c r="A35" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29" t="s">
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="27" t="s">
         <v>211</v>
       </c>
       <c r="H35" s="10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="K35" s="31" t="s">
+      <c r="K35" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23" t="s">
+      <c r="M35" s="21"/>
+      <c r="N35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="32" t="s">
+      <c r="O35" s="30" t="s">
         <v>213</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="33">
+      <c r="Q35" s="31">
         <v>6</v>
       </c>
       <c r="R35" s="5" t="s">
@@ -3783,56 +3855,56 @@
       <c r="T35" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="U35" s="34" t="s">
+      <c r="U35" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A36" s="26" t="s">
+    <row r="36" spans="1:21" ht="42">
+      <c r="A36" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29" t="s">
+      <c r="F36" s="48"/>
+      <c r="G36" s="27" t="s">
         <v>229</v>
       </c>
       <c r="H36" s="10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J36" s="30" t="s">
+      <c r="J36" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="32" t="s">
+      <c r="L36" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="23" t="s">
+      <c r="M36" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="N36" s="23"/>
-      <c r="O36" s="32" t="s">
+      <c r="N36" s="21"/>
+      <c r="O36" s="30" t="s">
         <v>216</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="33">
+      <c r="Q36" s="31">
         <v>6</v>
       </c>
       <c r="R36" s="5" t="s">
@@ -3844,73 +3916,73 @@
       <c r="T36" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="U36" s="34" t="s">
+      <c r="U36" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A37" s="26" t="s">
+    <row r="37" spans="1:21" ht="28">
+      <c r="A37" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29" t="s">
+      <c r="F37" s="48"/>
+      <c r="G37" s="27" t="s">
         <v>219</v>
       </c>
       <c r="H37" s="10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J37" s="30" t="s">
+      <c r="J37" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L37" s="32" t="s">
+      <c r="L37" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="23" t="s">
+      <c r="M37" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="N37" s="23"/>
-      <c r="O37" s="32" t="s">
+      <c r="N37" s="21"/>
+      <c r="O37" s="30" t="s">
         <v>125</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="31">
         <v>6</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>118</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="U37" s="34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="U37" s="32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" hidden="1">
+      <c r="A38" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -3919,14 +3991,14 @@
       <c r="C38" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="26"/>
+      <c r="G38" s="27" t="s">
         <v>222</v>
       </c>
       <c r="H38" s="10">
@@ -3935,26 +4007,26 @@
       <c r="I38" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="32" t="s">
+      <c r="L38" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="23" t="s">
+      <c r="M38" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="N38" s="23"/>
-      <c r="O38" s="32" t="s">
+      <c r="N38" s="21"/>
+      <c r="O38" s="30" t="s">
         <v>125</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="33">
+      <c r="Q38" s="31">
         <v>6</v>
       </c>
       <c r="R38" s="5" t="s">
@@ -3966,54 +4038,54 @@
       <c r="T38" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="U38" s="34" t="s">
+      <c r="U38" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A39" s="26" t="s">
+    <row r="39" spans="1:21" ht="28">
+      <c r="A39" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29" t="s">
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="27" t="s">
         <v>226</v>
       </c>
       <c r="H39" s="10">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="30" t="s">
+      <c r="J39" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="K39" s="31" t="s">
+      <c r="K39" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="32" t="s">
+      <c r="L39" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="23" t="s">
+      <c r="M39" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="N39" s="23"/>
-      <c r="O39" s="32" t="s">
+      <c r="N39" s="21"/>
+      <c r="O39" s="30" t="s">
         <v>255</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="33">
+      <c r="Q39" s="31">
         <v>6</v>
       </c>
       <c r="R39" s="5" t="s">
@@ -4025,54 +4097,54 @@
       <c r="T39" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="U39" s="34" t="s">
+      <c r="U39" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A40" s="26" t="s">
+    <row r="40" spans="1:21" ht="28">
+      <c r="A40" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29" t="s">
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="27" t="s">
         <v>233</v>
       </c>
       <c r="H40" s="10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="J40" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="K40" s="31" t="s">
+      <c r="K40" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="32" t="s">
+      <c r="L40" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="23" t="s">
+      <c r="M40" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="N40" s="23"/>
-      <c r="O40" s="32" t="s">
+      <c r="N40" s="21"/>
+      <c r="O40" s="30" t="s">
         <v>268</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="33">
+      <c r="Q40" s="31">
         <v>6</v>
       </c>
       <c r="R40" s="5" t="s">
@@ -4084,54 +4156,54 @@
       <c r="T40" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="U40" s="34" t="s">
+      <c r="U40" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A41" s="26" t="s">
+    <row r="41" spans="1:21" ht="28">
+      <c r="A41" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29" t="s">
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="27" t="s">
         <v>230</v>
       </c>
       <c r="H41" s="10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J41" s="30" t="s">
+      <c r="J41" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="K41" s="31" t="s">
+      <c r="K41" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L41" s="32" t="s">
+      <c r="L41" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="23" t="s">
+      <c r="M41" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="N41" s="23"/>
-      <c r="O41" s="32" t="s">
+      <c r="N41" s="21"/>
+      <c r="O41" s="30" t="s">
         <v>266</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="33">
+      <c r="Q41" s="31">
         <v>6</v>
       </c>
       <c r="R41" s="5" t="s">
@@ -4143,52 +4215,52 @@
       <c r="T41" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="U41" s="34" t="s">
+      <c r="U41" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A42" s="26" t="s">
+    <row r="42" spans="1:21" ht="28">
+      <c r="A42" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29" t="s">
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="27" t="s">
         <v>236</v>
       </c>
       <c r="H42" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="30" t="s">
+      <c r="J42" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="L42" s="32" t="s">
+      <c r="L42" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="32" t="s">
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="30" t="s">
         <v>269</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="33" t="s">
+      <c r="Q42" s="31" t="s">
         <v>238</v>
       </c>
       <c r="R42" s="5" t="s">
@@ -4200,99 +4272,99 @@
       <c r="T42" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="U42" s="34" t="s">
+      <c r="U42" s="32" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A43" s="26" t="s">
+    <row r="43" spans="1:21" ht="28">
+      <c r="A43" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29" t="s">
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="27" t="s">
         <v>243</v>
       </c>
       <c r="H43" s="10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J43" s="30" t="s">
+      <c r="J43" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="K43" s="31" t="s">
+      <c r="K43" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="32" t="s">
+      <c r="L43" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="32"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="30"/>
       <c r="P43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="33"/>
+      <c r="Q43" s="31"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="34"/>
-    </row>
-    <row r="44" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="26" t="s">
+      <c r="U43" s="32"/>
+    </row>
+    <row r="44" spans="1:21" s="36" customFormat="1" ht="28">
+      <c r="A44" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="29" t="s">
+      <c r="E44" s="47"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="27" t="s">
         <v>245</v>
       </c>
       <c r="H44" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J44" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="K44" s="31" t="s">
+      <c r="K44" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="32" t="s">
+      <c r="L44" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="23" t="s">
+      <c r="M44" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="N44" s="23"/>
-      <c r="O44" s="32" t="s">
+      <c r="N44" s="21"/>
+      <c r="O44" s="30" t="s">
         <v>247</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="33">
+      <c r="Q44" s="31">
         <v>6</v>
       </c>
       <c r="R44" s="5" t="s">
@@ -4304,52 +4376,52 @@
       <c r="T44" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="U44" s="34" t="s">
+      <c r="U44" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="26" t="s">
+    <row r="45" spans="1:21" hidden="1">
+      <c r="A45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
+      <c r="D45" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="10">
         <v>41</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J45" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="K45" s="31" t="s">
+      <c r="J45" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="K45" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L45" s="32" t="s">
+      <c r="L45" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M45" s="23" t="s">
+      <c r="M45" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N45" s="23"/>
-      <c r="O45" s="32" t="s">
-        <v>287</v>
+      <c r="N45" s="21"/>
+      <c r="O45" s="30" t="s">
+        <v>285</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="33">
+      <c r="Q45" s="31">
         <v>6</v>
       </c>
       <c r="R45" s="5" t="s">
@@ -4359,1098 +4431,1132 @@
         <v>98</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="U45" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="U45" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A46" s="26"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="34"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A47" s="26"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="41"/>
+    <row r="46" spans="1:21" ht="42">
+      <c r="A46" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="E46" s="56"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59">
+        <v>40</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="K46" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="N46" s="63"/>
+      <c r="O46" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="P46" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="66">
+        <v>6</v>
+      </c>
+      <c r="R46" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="S46" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="T46" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="U46" s="68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="24"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="42"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="32"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="30"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="33"/>
+      <c r="Q47" s="31"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="34"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A48" s="26"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
+      <c r="U47" s="32"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="24"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="42"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="29"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="32"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="30"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="33"/>
+      <c r="Q48" s="31"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="34"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A49" s="26"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="41"/>
+      <c r="U48" s="32"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="24"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="42"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="29"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="32"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="30"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="33"/>
+      <c r="Q49" s="31"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="34"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A50" s="26"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="41"/>
+      <c r="U49" s="32"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="24"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="42"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="29"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="32"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="30"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="33"/>
+      <c r="Q50" s="31"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="34"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A51" s="26"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="41"/>
+      <c r="U50" s="32"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="24"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="42"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="29"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="32"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="30"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="33"/>
+      <c r="Q51" s="31"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="34"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A52" s="26"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="41"/>
+      <c r="U51" s="32"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="24"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="42"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="29"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="32"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="30"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="33"/>
+      <c r="Q52" s="31"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="34"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A53" s="26"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="41"/>
+      <c r="U52" s="32"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="24"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="42"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="29"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="32"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="30"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="33"/>
+      <c r="Q53" s="31"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="34"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A54" s="26"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="41"/>
+      <c r="U53" s="32"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="24"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="29"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="32"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="30"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="33"/>
+      <c r="Q54" s="31"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="34"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A55" s="26"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
+      <c r="U54" s="32"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="24"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="42"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="29"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="32"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="30"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="33"/>
+      <c r="Q55" s="31"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="34"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A56" s="26"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="41"/>
+      <c r="U55" s="32"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="24"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="29"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="32"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="30"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="33"/>
+      <c r="Q56" s="31"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="34"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A57" s="26"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="41"/>
+      <c r="U56" s="32"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="24"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="42"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="29"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="32"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="30"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="33"/>
+      <c r="Q57" s="31"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="34"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A58" s="26"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="41"/>
+      <c r="U57" s="32"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="24"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="42"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="29"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="32"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="30"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="33"/>
+      <c r="Q58" s="31"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="34"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A59" s="26"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="41"/>
+      <c r="U58" s="32"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="24"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="42"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="29"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="32"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="30"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="33"/>
+      <c r="Q59" s="31"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="34"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A60" s="26"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
+      <c r="U59" s="32"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="24"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="42"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="29"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="32"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="30"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="33"/>
+      <c r="Q60" s="31"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="34"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A61" s="26"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="41"/>
+      <c r="U60" s="32"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="24"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="42"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="29"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="27"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="32"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="30"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="33"/>
+      <c r="Q61" s="31"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="34"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A62" s="26"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
+      <c r="U61" s="32"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="24"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="42"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="29"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="27"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="32"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="30"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="33"/>
+      <c r="Q62" s="31"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="34"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A63" s="26"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="41"/>
+      <c r="U62" s="32"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="24"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="42"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="29"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="32"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="30"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="33"/>
+      <c r="Q63" s="31"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="34"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A64" s="26"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="41"/>
+      <c r="U63" s="32"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="24"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="42"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="29"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="32"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="30"/>
       <c r="P64" s="11"/>
-      <c r="Q64" s="33"/>
+      <c r="Q64" s="31"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="34"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A65" s="26"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="41"/>
+      <c r="U64" s="32"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="24"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="45"/>
       <c r="D65" s="42"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="29"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="27"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="32"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="30"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="33"/>
+      <c r="Q65" s="31"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="34"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A66" s="26"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="41"/>
+      <c r="U65" s="32"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="24"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="42"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="29"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="32"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="30"/>
       <c r="P66" s="11"/>
-      <c r="Q66" s="33"/>
+      <c r="Q66" s="31"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="34"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A67" s="26"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="41"/>
+      <c r="U66" s="32"/>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="24"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="42"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="29"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="32"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="30"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="33"/>
+      <c r="Q67" s="31"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
-      <c r="U67" s="34"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A68" s="26"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="41"/>
+      <c r="U67" s="32"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="24"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="45"/>
       <c r="D68" s="42"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="29"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="32"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="30"/>
       <c r="P68" s="11"/>
-      <c r="Q68" s="33"/>
+      <c r="Q68" s="31"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
-      <c r="U68" s="34"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A69" s="26"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="41"/>
+      <c r="U68" s="32"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="24"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="42"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="29"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="32"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="30"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="33"/>
+      <c r="Q69" s="31"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
-      <c r="U69" s="34"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A70" s="26"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="41"/>
+      <c r="U69" s="32"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="24"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="45"/>
       <c r="D70" s="42"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="29"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="27"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="32"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="30"/>
       <c r="P70" s="11"/>
-      <c r="Q70" s="33"/>
+      <c r="Q70" s="31"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
-      <c r="U70" s="34"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A71" s="26"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="41"/>
+      <c r="U70" s="32"/>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="24"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="45"/>
       <c r="D71" s="42"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="29"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="27"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="32"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="30"/>
       <c r="P71" s="11"/>
-      <c r="Q71" s="33"/>
+      <c r="Q71" s="31"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
-      <c r="U71" s="34"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A72" s="26"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="41"/>
+      <c r="U71" s="32"/>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="24"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="29"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="27"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="32"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="30"/>
       <c r="P72" s="11"/>
-      <c r="Q72" s="33"/>
+      <c r="Q72" s="31"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
-      <c r="U72" s="34"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A73" s="26"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="41"/>
+      <c r="U72" s="32"/>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="24"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="42"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="29"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="27"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="32"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="30"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="33"/>
+      <c r="Q73" s="31"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
-      <c r="U73" s="34"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A74" s="26"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="41"/>
+      <c r="U73" s="32"/>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="24"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="29"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="27"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="32"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="30"/>
       <c r="P74" s="11"/>
-      <c r="Q74" s="33"/>
+      <c r="Q74" s="31"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
-      <c r="U74" s="34"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A75" s="26"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="41"/>
+      <c r="U74" s="32"/>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="24"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="45"/>
       <c r="D75" s="42"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="29"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="27"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="32"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="30"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="33"/>
+      <c r="Q75" s="31"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
-      <c r="U75" s="34"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A76" s="26"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="41"/>
+      <c r="U75" s="32"/>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="24"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="45"/>
       <c r="D76" s="42"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="29"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="27"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="32"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="30"/>
       <c r="P76" s="11"/>
-      <c r="Q76" s="33"/>
+      <c r="Q76" s="31"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
-      <c r="U76" s="34"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A77" s="26"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="41"/>
+      <c r="U76" s="32"/>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="24"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="42"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="29"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="27"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="32"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="30"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="33"/>
+      <c r="Q77" s="31"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
-      <c r="U77" s="34"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A78" s="26"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="41"/>
+      <c r="U77" s="32"/>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="24"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="42"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="29"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="27"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="32"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="30"/>
       <c r="P78" s="11"/>
-      <c r="Q78" s="33"/>
+      <c r="Q78" s="31"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
-      <c r="U78" s="34"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A79" s="26"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="41"/>
+      <c r="U78" s="32"/>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="24"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="42"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="29"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="27"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="32"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="30"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="33"/>
+      <c r="Q79" s="31"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
-      <c r="U79" s="34"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A80" s="26"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="41"/>
+      <c r="U79" s="32"/>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="24"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="42"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="29"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="27"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="32"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="30"/>
       <c r="P80" s="11"/>
-      <c r="Q80" s="33"/>
+      <c r="Q80" s="31"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
-      <c r="U80" s="34"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A81" s="26"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="41"/>
+      <c r="U80" s="32"/>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="24"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="45"/>
       <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="29"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="27"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="32"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="30"/>
       <c r="P81" s="11"/>
-      <c r="Q81" s="33"/>
+      <c r="Q81" s="31"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
-      <c r="U81" s="34"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A82" s="26"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="41"/>
+      <c r="U81" s="32"/>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="24"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="42"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="29"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="27"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="32"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="30"/>
       <c r="P82" s="11"/>
-      <c r="Q82" s="33"/>
+      <c r="Q82" s="31"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
-      <c r="U82" s="34"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A83" s="26"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="41"/>
+      <c r="U82" s="32"/>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="24"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="42"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="29"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="27"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="32"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="30"/>
       <c r="P83" s="11"/>
-      <c r="Q83" s="33"/>
+      <c r="Q83" s="31"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
-      <c r="U83" s="34"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A84" s="26"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="41"/>
+      <c r="U83" s="32"/>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="24"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="42"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="29"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="27"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="32"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="30"/>
       <c r="P84" s="11"/>
-      <c r="Q84" s="33"/>
+      <c r="Q84" s="31"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
-      <c r="U84" s="34"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A85" s="26"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="41"/>
+      <c r="U84" s="32"/>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="24"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="42"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="29"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="27"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="32"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="32"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="30"/>
       <c r="P85" s="11"/>
-      <c r="Q85" s="33"/>
+      <c r="Q85" s="31"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
-      <c r="U85" s="34"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A86" s="26"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="41"/>
+      <c r="U85" s="32"/>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="24"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="45"/>
       <c r="D86" s="42"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="29"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="27"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="32"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="30"/>
       <c r="P86" s="11"/>
-      <c r="Q86" s="33"/>
+      <c r="Q86" s="31"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
-      <c r="U86" s="34"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A87" s="26"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="41"/>
+      <c r="U86" s="32"/>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" s="24"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="45"/>
       <c r="D87" s="42"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="29"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="27"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="23"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="32"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="30"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="33"/>
+      <c r="Q87" s="31"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
-      <c r="U87" s="34"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A88" s="26"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="41"/>
+      <c r="U87" s="32"/>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" s="24"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="42"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="29"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="27"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="23"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="32"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="30"/>
       <c r="P88" s="11"/>
-      <c r="Q88" s="33"/>
+      <c r="Q88" s="31"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
-      <c r="U88" s="34"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A89" s="26"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="41"/>
+      <c r="U88" s="32"/>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" s="24"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="42"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="29"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="27"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="31"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="32"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="30"/>
       <c r="P89" s="11"/>
-      <c r="Q89" s="33"/>
+      <c r="Q89" s="31"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
-      <c r="U89" s="34"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A90" s="26"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="41"/>
+      <c r="U89" s="32"/>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="24"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="45"/>
       <c r="D90" s="42"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="29"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="27"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="31"/>
-      <c r="L90" s="32"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="23"/>
-      <c r="O90" s="32"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="30"/>
       <c r="P90" s="11"/>
-      <c r="Q90" s="33"/>
+      <c r="Q90" s="31"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
-      <c r="U90" s="34"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A91" s="26"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="41"/>
+      <c r="U90" s="32"/>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="24"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="45"/>
       <c r="D91" s="42"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="29"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="27"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="32"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="32"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="30"/>
       <c r="P91" s="11"/>
-      <c r="Q91" s="33"/>
+      <c r="Q91" s="31"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
-      <c r="U91" s="34"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A92" s="26"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="41"/>
+      <c r="U91" s="32"/>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="24"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="42"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="29"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="27"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="32"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
-      <c r="O92" s="32"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="30"/>
       <c r="P92" s="11"/>
-      <c r="Q92" s="33"/>
+      <c r="Q92" s="31"/>
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
-      <c r="U92" s="34"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="E93" s="43"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="29"/>
-      <c r="N93" s="23"/>
+      <c r="U92" s="32"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="E93" s="50"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="27"/>
+      <c r="N93" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U45">
@@ -5484,7 +5590,7 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -5541,16 +5647,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -5573,7 +5679,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>34</v>
@@ -5594,7 +5700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>35</v>
@@ -5615,7 +5721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>36</v>
@@ -5632,7 +5738,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>37</v>
@@ -5649,7 +5755,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>38</v>
@@ -5664,7 +5770,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>39</v>
@@ -5677,7 +5783,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>40</v>
@@ -5690,7 +5796,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>41</v>
@@ -5703,7 +5809,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>42</v>
@@ -5716,7 +5822,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>43</v>
@@ -5731,7 +5837,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>44</v>
@@ -5746,7 +5852,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>45</v>
@@ -5761,7 +5867,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>46</v>
@@ -5776,7 +5882,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
@@ -5789,7 +5895,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
@@ -5802,7 +5908,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
@@ -5815,7 +5921,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
@@ -5828,7 +5934,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
@@ -5841,7 +5947,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
@@ -5854,7 +5960,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
@@ -5867,7 +5973,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
@@ -5880,7 +5986,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
@@ -5893,7 +5999,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
@@ -5906,7 +6012,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
@@ -5917,7 +6023,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -5928,7 +6034,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
@@ -5939,7 +6045,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
@@ -5950,7 +6056,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
@@ -5961,7 +6067,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
@@ -5972,7 +6078,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
@@ -5983,7 +6089,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
@@ -5994,7 +6100,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
@@ -6005,7 +6111,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
@@ -6016,7 +6122,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -6027,7 +6133,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
@@ -6038,7 +6144,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7" t="s">
@@ -6049,7 +6155,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
@@ -6060,7 +6166,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
@@ -6071,7 +6177,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6080,7 +6186,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -6089,7 +6195,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -6098,7 +6204,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -6107,7 +6213,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -6116,7 +6222,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -6125,7 +6231,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -6134,7 +6240,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -6143,7 +6249,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -6152,7 +6258,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -6161,7 +6267,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>

--- a/fuentes/contenidos/grado09/guion02/ESCALETA_LE_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/ESCALETA_LE_09_02_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado09\guion02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csepulveda\Desktop\GITHUB2015\Lenguaje\fuentes\contenidos\grado09\guion02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21396" windowHeight="12379"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21390" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1400,24 +1400,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1525,6 +1507,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1825,129 +1825,129 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" topLeftCell="K27" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="32.796875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="24.1328125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="30" customWidth="1"/>
     <col min="5" max="6" width="19" style="30" customWidth="1"/>
-    <col min="7" max="7" width="63.33203125" style="30" customWidth="1"/>
-    <col min="8" max="9" width="5.06640625" style="84" customWidth="1"/>
-    <col min="10" max="10" width="92.33203125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="85" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="85" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="85" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="63.28515625" style="30" customWidth="1"/>
+    <col min="8" max="9" width="5" style="78" customWidth="1"/>
+    <col min="10" max="10" width="92.28515625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="79" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="79" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="79" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" style="30" customWidth="1"/>
     <col min="15" max="15" width="60" style="30" customWidth="1"/>
-    <col min="16" max="16" width="7" style="84" customWidth="1"/>
+    <col min="16" max="16" width="7" style="78" customWidth="1"/>
     <col min="17" max="17" width="5" style="30" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="30" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" style="30" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" style="30" customWidth="1"/>
-    <col min="21" max="21" width="12.46484375" style="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.796875" style="30"/>
+    <col min="18" max="18" width="5.7109375" style="30" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="30" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="30" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.85546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:21" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="83"/>
+      <c r="O1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="80" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="48"/>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="10" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="50" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -1958,55 +1958,55 @@
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="47">
         <v>1</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56" t="s">
+      <c r="N3" s="50"/>
+      <c r="O3" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="P3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="52">
         <v>6</v>
       </c>
-      <c r="R3" s="59" t="s">
+      <c r="R3" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="S3" s="59" t="s">
+      <c r="S3" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="T3" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="60" t="s">
+      <c r="U3" s="54" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="31" t="s">
@@ -2017,55 +2017,55 @@
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="57">
         <v>2</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="66" t="s">
+      <c r="N4" s="50"/>
+      <c r="O4" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="67">
+      <c r="Q4" s="61">
         <v>6</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="68" t="s">
+      <c r="T4" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -2076,55 +2076,55 @@
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="57">
         <v>3</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="66" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="67">
+      <c r="Q5" s="61">
         <v>6</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="68" t="s">
+      <c r="S5" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T5" s="68" t="s">
+      <c r="T5" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="U5" s="69" t="s">
+      <c r="U5" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -2135,55 +2135,55 @@
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="35"/>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="57">
         <v>4</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="56" t="s">
+      <c r="M6" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="56"/>
-      <c r="O6" s="66" t="s">
+      <c r="N6" s="50"/>
+      <c r="O6" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="P6" s="57" t="s">
+      <c r="P6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="67">
+      <c r="Q6" s="61">
         <v>6</v>
       </c>
-      <c r="R6" s="68" t="s">
+      <c r="R6" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S6" s="68" t="s">
+      <c r="S6" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T6" s="68" t="s">
+      <c r="T6" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="31" t="s">
@@ -2194,55 +2194,55 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="35"/>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="57">
         <v>5</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="M7" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="56"/>
-      <c r="O7" s="66" t="s">
+      <c r="N7" s="50"/>
+      <c r="O7" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="57" t="s">
+      <c r="P7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="67">
+      <c r="Q7" s="61">
         <v>6</v>
       </c>
-      <c r="R7" s="68" t="s">
+      <c r="R7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S7" s="68" t="s">
+      <c r="S7" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="68" t="s">
+      <c r="T7" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="U7" s="69" t="s">
+      <c r="U7" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="61" t="s">
+    <row r="8" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -2253,55 +2253,55 @@
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="35"/>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="57">
         <v>6</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="56" t="s">
+      <c r="M8" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="N8" s="56"/>
-      <c r="O8" s="66" t="s">
+      <c r="N8" s="50"/>
+      <c r="O8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="P8" s="57" t="s">
+      <c r="P8" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="67">
+      <c r="Q8" s="61">
         <v>6</v>
       </c>
-      <c r="R8" s="68" t="s">
+      <c r="R8" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="68" t="s">
+      <c r="S8" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T8" s="68" t="s">
+      <c r="T8" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="U8" s="69" t="s">
+      <c r="U8" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -2312,55 +2312,55 @@
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="33"/>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="57">
         <v>7</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56" t="s">
+      <c r="M9" s="50"/>
+      <c r="N9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="66" t="s">
+      <c r="O9" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="P9" s="57" t="s">
+      <c r="P9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="58">
+      <c r="Q9" s="52">
         <v>6</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="S9" s="59" t="s">
+      <c r="S9" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="U9" s="60" t="s">
+      <c r="U9" s="54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -2375,51 +2375,51 @@
       <c r="F10" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="57">
         <v>8</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="66" t="s">
+      <c r="L10" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="56" t="s">
+      <c r="M10" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="56"/>
-      <c r="O10" s="66" t="s">
+      <c r="N10" s="50"/>
+      <c r="O10" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="P10" s="57" t="s">
+      <c r="P10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="67">
+      <c r="Q10" s="61">
         <v>6</v>
       </c>
-      <c r="R10" s="68" t="s">
+      <c r="R10" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S10" s="68" t="s">
+      <c r="S10" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T10" s="68" t="s">
+      <c r="T10" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="U10" s="69" t="s">
+      <c r="U10" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>68</v>
       </c>
@@ -2482,11 +2482,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="61" t="s">
+    <row r="12" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -2501,55 +2501,55 @@
       <c r="F12" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="57">
         <v>9</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56" t="s">
+      <c r="M12" s="50"/>
+      <c r="N12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="66" t="s">
+      <c r="O12" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="P12" s="57" t="s">
+      <c r="P12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="67">
+      <c r="Q12" s="61">
         <v>6</v>
       </c>
-      <c r="R12" s="68" t="s">
+      <c r="R12" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="S12" s="68" t="s">
+      <c r="S12" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="T12" s="68" t="s">
+      <c r="T12" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="61" t="s">
+    <row r="13" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="31" t="s">
@@ -2564,55 +2564,55 @@
       <c r="F13" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="57">
         <v>10</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="64" t="s">
+      <c r="J13" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="65" t="s">
+      <c r="K13" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="66" t="s">
+      <c r="L13" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="56" t="s">
+      <c r="M13" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="66" t="s">
+      <c r="N13" s="50"/>
+      <c r="O13" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="P13" s="57" t="s">
+      <c r="P13" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="67">
+      <c r="Q13" s="61">
         <v>6</v>
       </c>
-      <c r="R13" s="68" t="s">
+      <c r="R13" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S13" s="68" t="s">
+      <c r="S13" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T13" s="68" t="s">
+      <c r="T13" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="U13" s="69" t="s">
+      <c r="U13" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -2627,55 +2627,55 @@
       <c r="F14" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="57">
         <v>11</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="56" t="s">
+      <c r="M14" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="56"/>
-      <c r="O14" s="66" t="s">
+      <c r="N14" s="50"/>
+      <c r="O14" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="P14" s="57" t="s">
+      <c r="P14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="67">
+      <c r="Q14" s="61">
         <v>6</v>
       </c>
-      <c r="R14" s="68" t="s">
+      <c r="R14" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S14" s="68" t="s">
+      <c r="S14" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T14" s="68" t="s">
+      <c r="T14" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="U14" s="69" t="s">
+      <c r="U14" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="61" t="s">
+    <row r="15" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="31" t="s">
@@ -2690,55 +2690,55 @@
       <c r="F15" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="57">
         <v>12</v>
       </c>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56" t="s">
+      <c r="M15" s="50"/>
+      <c r="N15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="66" t="s">
+      <c r="O15" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="P15" s="57" t="s">
+      <c r="P15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="67">
+      <c r="Q15" s="61">
         <v>6</v>
       </c>
-      <c r="R15" s="68" t="s">
+      <c r="R15" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="S15" s="68" t="s">
+      <c r="S15" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="T15" s="68" t="s">
+      <c r="T15" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="U15" s="69" t="s">
+      <c r="U15" s="63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C16" s="31" t="s">
@@ -2753,55 +2753,55 @@
       <c r="F16" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="57">
         <v>13</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="64" t="s">
+      <c r="J16" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="66" t="s">
+      <c r="L16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="56" t="s">
+      <c r="M16" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="56"/>
-      <c r="O16" s="66" t="s">
+      <c r="N16" s="50"/>
+      <c r="O16" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="P16" s="57" t="s">
+      <c r="P16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="67">
+      <c r="Q16" s="61">
         <v>6</v>
       </c>
-      <c r="R16" s="68" t="s">
+      <c r="R16" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S16" s="68" t="s">
+      <c r="S16" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T16" s="68" t="s">
+      <c r="T16" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="U16" s="69" t="s">
+      <c r="U16" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="61" t="s">
+    <row r="17" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -2814,55 +2814,55 @@
         <v>149</v>
       </c>
       <c r="F17" s="35"/>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="57">
         <v>14</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="64" t="s">
+      <c r="J17" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="56" t="s">
+      <c r="M17" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="56"/>
-      <c r="O17" s="66" t="s">
+      <c r="N17" s="50"/>
+      <c r="O17" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="P17" s="57" t="s">
+      <c r="P17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="67">
+      <c r="Q17" s="61">
         <v>6</v>
       </c>
-      <c r="R17" s="68" t="s">
+      <c r="R17" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S17" s="68" t="s">
+      <c r="S17" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T17" s="68" t="s">
+      <c r="T17" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="U17" s="69" t="s">
+      <c r="U17" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="61" t="s">
+    <row r="18" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C18" s="31" t="s">
@@ -2875,55 +2875,55 @@
         <v>270</v>
       </c>
       <c r="F18" s="35"/>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="57">
         <v>15</v>
       </c>
-      <c r="I18" s="63" t="s">
+      <c r="I18" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="J18" s="64" t="s">
+      <c r="J18" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="K18" s="65" t="s">
+      <c r="K18" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="66" t="s">
+      <c r="L18" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="56" t="s">
+      <c r="M18" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="56"/>
-      <c r="O18" s="66" t="s">
+      <c r="N18" s="50"/>
+      <c r="O18" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="P18" s="57" t="s">
+      <c r="P18" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="67">
+      <c r="Q18" s="61">
         <v>6</v>
       </c>
-      <c r="R18" s="68" t="s">
+      <c r="R18" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="S18" s="68" t="s">
+      <c r="S18" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="T18" s="68" t="s">
+      <c r="T18" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="U18" s="69" t="s">
+      <c r="U18" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="31" t="s">
@@ -2934,55 +2934,55 @@
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="35"/>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="57">
         <v>16</v>
       </c>
-      <c r="I19" s="63" t="s">
+      <c r="I19" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="64" t="s">
+      <c r="J19" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="K19" s="65" t="s">
+      <c r="K19" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="66" t="s">
+      <c r="L19" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56" t="s">
+      <c r="M19" s="50"/>
+      <c r="N19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="66" t="s">
+      <c r="O19" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="P19" s="57" t="s">
+      <c r="P19" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="67">
+      <c r="Q19" s="61">
         <v>6</v>
       </c>
-      <c r="R19" s="68" t="s">
+      <c r="R19" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="S19" s="68" t="s">
+      <c r="S19" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="T19" s="68" t="s">
+      <c r="T19" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="U19" s="69" t="s">
+      <c r="U19" s="63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="61" t="s">
+    <row r="20" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -2993,53 +2993,53 @@
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="35"/>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="57">
         <v>17</v>
       </c>
-      <c r="I20" s="63" t="s">
+      <c r="I20" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="65" t="s">
+      <c r="K20" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="66" t="s">
+      <c r="L20" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="66" t="s">
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="P20" s="57" t="s">
+      <c r="P20" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="67" t="s">
+      <c r="Q20" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="R20" s="68" t="s">
+      <c r="R20" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="S20" s="68" t="s">
+      <c r="S20" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="T20" s="68" t="s">
+      <c r="T20" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="U20" s="69" t="s">
+      <c r="U20" s="63" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="61" t="s">
+    <row r="21" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -3050,53 +3050,53 @@
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="35"/>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="57">
         <v>18</v>
       </c>
-      <c r="I21" s="63" t="s">
+      <c r="I21" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="66" t="s">
+      <c r="L21" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="66" t="s">
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="P21" s="57" t="s">
+      <c r="P21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="67">
+      <c r="Q21" s="61">
         <v>5</v>
       </c>
-      <c r="R21" s="68" t="s">
+      <c r="R21" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="S21" s="68" t="s">
+      <c r="S21" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="T21" s="68" t="s">
+      <c r="T21" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="U21" s="69" t="s">
+      <c r="U21" s="63" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -3109,55 +3109,55 @@
         <v>149</v>
       </c>
       <c r="F22" s="35"/>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="57">
         <v>19</v>
       </c>
-      <c r="I22" s="63" t="s">
+      <c r="I22" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="64" t="s">
+      <c r="J22" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="65" t="s">
+      <c r="K22" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="66" t="s">
+      <c r="L22" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="56" t="s">
+      <c r="M22" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="56"/>
-      <c r="O22" s="66" t="s">
+      <c r="N22" s="50"/>
+      <c r="O22" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="P22" s="57" t="s">
+      <c r="P22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="67">
+      <c r="Q22" s="61">
         <v>6</v>
       </c>
-      <c r="R22" s="68" t="s">
+      <c r="R22" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S22" s="68" t="s">
+      <c r="S22" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T22" s="68" t="s">
+      <c r="T22" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="U22" s="69" t="s">
+      <c r="U22" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="31" t="s">
@@ -3170,55 +3170,55 @@
         <v>173</v>
       </c>
       <c r="F23" s="35"/>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="57">
         <v>20</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J23" s="64" t="s">
+      <c r="J23" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="K23" s="65" t="s">
+      <c r="K23" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="66" t="s">
+      <c r="L23" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="56" t="s">
+      <c r="M23" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="N23" s="56"/>
-      <c r="O23" s="66" t="s">
+      <c r="N23" s="50"/>
+      <c r="O23" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="P23" s="57" t="s">
+      <c r="P23" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="67">
+      <c r="Q23" s="61">
         <v>6</v>
       </c>
-      <c r="R23" s="68" t="s">
+      <c r="R23" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S23" s="68" t="s">
+      <c r="S23" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T23" s="68" t="s">
+      <c r="T23" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="U23" s="69" t="s">
+      <c r="U23" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -3231,55 +3231,55 @@
         <v>177</v>
       </c>
       <c r="F24" s="35"/>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="57">
         <v>21</v>
       </c>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="64" t="s">
+      <c r="J24" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="66" t="s">
+      <c r="L24" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56" t="s">
+      <c r="M24" s="50"/>
+      <c r="N24" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="O24" s="66" t="s">
+      <c r="O24" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="P24" s="57" t="s">
+      <c r="P24" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="67">
+      <c r="Q24" s="61">
         <v>6</v>
       </c>
-      <c r="R24" s="68" t="s">
+      <c r="R24" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="S24" s="68" t="s">
+      <c r="S24" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="T24" s="68" t="s">
+      <c r="T24" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="U24" s="69" t="s">
+      <c r="U24" s="63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="61" t="s">
+    <row r="25" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="31" t="s">
@@ -3292,55 +3292,55 @@
         <v>149</v>
       </c>
       <c r="F25" s="35"/>
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="57">
         <v>22</v>
       </c>
-      <c r="I25" s="63" t="s">
+      <c r="I25" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J25" s="64" t="s">
+      <c r="J25" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="65" t="s">
+      <c r="K25" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="66" t="s">
+      <c r="L25" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="56" t="s">
+      <c r="M25" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="56"/>
-      <c r="O25" s="66" t="s">
+      <c r="N25" s="50"/>
+      <c r="O25" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="P25" s="57" t="s">
+      <c r="P25" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="67">
+      <c r="Q25" s="61">
         <v>6</v>
       </c>
-      <c r="R25" s="68" t="s">
+      <c r="R25" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S25" s="68" t="s">
+      <c r="S25" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T25" s="68" t="s">
+      <c r="T25" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="U25" s="69" t="s">
+      <c r="U25" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="61" t="s">
+    <row r="26" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="31" t="s">
@@ -3351,55 +3351,55 @@
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="35"/>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="57">
         <v>23</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="I26" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="J26" s="64" t="s">
+      <c r="J26" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="65" t="s">
+      <c r="K26" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="66" t="s">
+      <c r="L26" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56" t="s">
+      <c r="M26" s="50"/>
+      <c r="N26" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="66" t="s">
+      <c r="O26" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="P26" s="57" t="s">
+      <c r="P26" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="67">
+      <c r="Q26" s="61">
         <v>6</v>
       </c>
-      <c r="R26" s="68" t="s">
+      <c r="R26" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S26" s="68" t="s">
+      <c r="S26" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="T26" s="68" t="s">
+      <c r="T26" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="U26" s="69" t="s">
+      <c r="U26" s="63" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="61" t="s">
+    <row r="27" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="31" t="s">
@@ -3410,55 +3410,55 @@
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="35"/>
-      <c r="G27" s="62" t="s">
+      <c r="G27" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="63">
+      <c r="H27" s="57">
         <v>24</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="J27" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="65" t="s">
+      <c r="K27" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="66" t="s">
+      <c r="L27" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="56" t="s">
+      <c r="M27" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N27" s="56"/>
-      <c r="O27" s="66" t="s">
+      <c r="N27" s="50"/>
+      <c r="O27" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="P27" s="57" t="s">
+      <c r="P27" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="67">
+      <c r="Q27" s="61">
         <v>6</v>
       </c>
-      <c r="R27" s="68" t="s">
+      <c r="R27" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S27" s="68" t="s">
+      <c r="S27" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T27" s="68" t="s">
+      <c r="T27" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="U27" s="69" t="s">
+      <c r="U27" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="61" t="s">
+    <row r="28" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C28" s="31" t="s">
@@ -3471,51 +3471,51 @@
         <v>190</v>
       </c>
       <c r="F28" s="35"/>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="57">
         <v>25</v>
       </c>
-      <c r="I28" s="63" t="s">
+      <c r="I28" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="64" t="s">
+      <c r="J28" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="66" t="s">
+      <c r="L28" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56" t="s">
+      <c r="M28" s="50"/>
+      <c r="N28" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="O28" s="66" t="s">
+      <c r="O28" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="67">
+      <c r="Q28" s="61">
         <v>6</v>
       </c>
-      <c r="R28" s="68" t="s">
+      <c r="R28" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="S28" s="68" t="s">
+      <c r="S28" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="T28" s="68" t="s">
+      <c r="T28" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="U28" s="69" t="s">
+      <c r="U28" s="63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
@@ -3576,11 +3576,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="61" t="s">
+    <row r="30" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C30" s="31" t="s">
@@ -3593,55 +3593,55 @@
         <v>197</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="57">
         <v>26</v>
       </c>
-      <c r="I30" s="63" t="s">
+      <c r="I30" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J30" s="64" t="s">
+      <c r="J30" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="65" t="s">
+      <c r="K30" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="66" t="s">
+      <c r="L30" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="56" t="s">
+      <c r="M30" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="56"/>
-      <c r="O30" s="66" t="s">
+      <c r="N30" s="50"/>
+      <c r="O30" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="P30" s="57" t="s">
+      <c r="P30" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="67">
+      <c r="Q30" s="61">
         <v>6</v>
       </c>
-      <c r="R30" s="68" t="s">
+      <c r="R30" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S30" s="68" t="s">
+      <c r="S30" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T30" s="68" t="s">
+      <c r="T30" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="U30" s="69" t="s">
+      <c r="U30" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="61" t="s">
+    <row r="31" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C31" s="31" t="s">
@@ -3654,55 +3654,55 @@
         <v>197</v>
       </c>
       <c r="F31" s="35"/>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="57">
         <v>27</v>
       </c>
-      <c r="I31" s="63" t="s">
+      <c r="I31" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="64" t="s">
+      <c r="J31" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="K31" s="65" t="s">
+      <c r="K31" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="66" t="s">
+      <c r="L31" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="56" t="s">
+      <c r="M31" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="56"/>
-      <c r="O31" s="66" t="s">
+      <c r="N31" s="50"/>
+      <c r="O31" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="P31" s="57" t="s">
+      <c r="P31" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="67">
+      <c r="Q31" s="61">
         <v>6</v>
       </c>
-      <c r="R31" s="68" t="s">
+      <c r="R31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S31" s="68" t="s">
+      <c r="S31" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T31" s="68" t="s">
+      <c r="T31" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="U31" s="69" t="s">
+      <c r="U31" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="61" t="s">
+    <row r="32" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="31" t="s">
@@ -3715,55 +3715,55 @@
         <v>149</v>
       </c>
       <c r="F32" s="35"/>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="57">
         <v>28</v>
       </c>
-      <c r="I32" s="63" t="s">
+      <c r="I32" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J32" s="64" t="s">
+      <c r="J32" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="K32" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="66" t="s">
+      <c r="L32" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="56" t="s">
+      <c r="M32" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="N32" s="56"/>
-      <c r="O32" s="66" t="s">
+      <c r="N32" s="50"/>
+      <c r="O32" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="P32" s="57" t="s">
+      <c r="P32" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="67">
+      <c r="Q32" s="61">
         <v>6</v>
       </c>
-      <c r="R32" s="68" t="s">
+      <c r="R32" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S32" s="68" t="s">
+      <c r="S32" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T32" s="68" t="s">
+      <c r="T32" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="U32" s="69" t="s">
+      <c r="U32" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="61" t="s">
+    <row r="33" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="31" t="s">
@@ -3776,55 +3776,55 @@
         <v>270</v>
       </c>
       <c r="F33" s="35"/>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="H33" s="63">
+      <c r="H33" s="57">
         <v>29</v>
       </c>
-      <c r="I33" s="63" t="s">
+      <c r="I33" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J33" s="64" t="s">
+      <c r="J33" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="K33" s="65" t="s">
+      <c r="K33" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="66" t="s">
+      <c r="L33" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="56" t="s">
+      <c r="M33" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="56"/>
-      <c r="O33" s="66" t="s">
+      <c r="N33" s="50"/>
+      <c r="O33" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="P33" s="57" t="s">
+      <c r="P33" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="67">
+      <c r="Q33" s="61">
         <v>6</v>
       </c>
-      <c r="R33" s="68" t="s">
+      <c r="R33" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S33" s="68" t="s">
+      <c r="S33" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="T33" s="68" t="s">
+      <c r="T33" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="U33" s="69" t="s">
+      <c r="U33" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="61" t="s">
+    <row r="34" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C34" s="31" t="s">
@@ -3837,55 +3837,55 @@
         <v>149</v>
       </c>
       <c r="F34" s="35"/>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="63">
+      <c r="H34" s="57">
         <v>30</v>
       </c>
-      <c r="I34" s="63" t="s">
+      <c r="I34" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="64" t="s">
+      <c r="J34" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="K34" s="65" t="s">
+      <c r="K34" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="66" t="s">
+      <c r="L34" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="56" t="s">
+      <c r="M34" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="N34" s="56"/>
-      <c r="O34" s="66" t="s">
+      <c r="N34" s="50"/>
+      <c r="O34" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="P34" s="57" t="s">
+      <c r="P34" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="67">
+      <c r="Q34" s="61">
         <v>6</v>
       </c>
-      <c r="R34" s="68" t="s">
+      <c r="R34" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S34" s="68" t="s">
+      <c r="S34" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T34" s="68" t="s">
+      <c r="T34" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="U34" s="69" t="s">
+      <c r="U34" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="61" t="s">
+    <row r="35" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="31" t="s">
@@ -3896,55 +3896,55 @@
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="35"/>
-      <c r="G35" s="62" t="s">
+      <c r="G35" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="H35" s="63">
+      <c r="H35" s="57">
         <v>31</v>
       </c>
-      <c r="I35" s="63" t="s">
+      <c r="I35" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J35" s="64" t="s">
+      <c r="J35" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="66" t="s">
+      <c r="L35" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56" t="s">
+      <c r="M35" s="50"/>
+      <c r="N35" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="66" t="s">
+      <c r="O35" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="P35" s="57" t="s">
+      <c r="P35" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="67">
+      <c r="Q35" s="61">
         <v>6</v>
       </c>
-      <c r="R35" s="68" t="s">
+      <c r="R35" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="S35" s="68" t="s">
+      <c r="S35" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="T35" s="68" t="s">
+      <c r="T35" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="U35" s="69" t="s">
+      <c r="U35" s="63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="61" t="s">
+    <row r="36" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="31" t="s">
@@ -3957,55 +3957,55 @@
         <v>215</v>
       </c>
       <c r="F36" s="35"/>
-      <c r="G36" s="62" t="s">
+      <c r="G36" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="H36" s="63">
+      <c r="H36" s="57">
         <v>32</v>
       </c>
-      <c r="I36" s="63" t="s">
+      <c r="I36" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J36" s="64" t="s">
+      <c r="J36" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="66" t="s">
+      <c r="L36" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="56" t="s">
+      <c r="M36" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="N36" s="56"/>
-      <c r="O36" s="66" t="s">
+      <c r="N36" s="50"/>
+      <c r="O36" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="P36" s="57" t="s">
+      <c r="P36" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="67">
+      <c r="Q36" s="61">
         <v>6</v>
       </c>
-      <c r="R36" s="68" t="s">
+      <c r="R36" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S36" s="68" t="s">
+      <c r="S36" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T36" s="68" t="s">
+      <c r="T36" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="U36" s="69" t="s">
+      <c r="U36" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="61" t="s">
+    <row r="37" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -4018,51 +4018,51 @@
         <v>149</v>
       </c>
       <c r="F37" s="35"/>
-      <c r="G37" s="62" t="s">
+      <c r="G37" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="H37" s="63">
+      <c r="H37" s="57">
         <v>33</v>
       </c>
-      <c r="I37" s="63" t="s">
+      <c r="I37" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J37" s="64" t="s">
+      <c r="J37" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="K37" s="65" t="s">
+      <c r="K37" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L37" s="66" t="s">
+      <c r="L37" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="56" t="s">
+      <c r="M37" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="N37" s="56"/>
-      <c r="O37" s="66" t="s">
+      <c r="N37" s="50"/>
+      <c r="O37" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="67">
+      <c r="Q37" s="61">
         <v>6</v>
       </c>
-      <c r="R37" s="68" t="s">
+      <c r="R37" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="S37" s="68" t="s">
+      <c r="S37" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="T37" s="68" t="s">
+      <c r="T37" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="U37" s="69" t="s">
+      <c r="U37" s="63" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>68</v>
       </c>
@@ -4123,11 +4123,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="61" t="s">
+    <row r="39" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="31" t="s">
@@ -4138,55 +4138,55 @@
       </c>
       <c r="E39" s="34"/>
       <c r="F39" s="35"/>
-      <c r="G39" s="62" t="s">
+      <c r="G39" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="H39" s="63">
+      <c r="H39" s="57">
         <v>34</v>
       </c>
-      <c r="I39" s="63" t="s">
+      <c r="I39" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="64" t="s">
+      <c r="J39" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="K39" s="65" t="s">
+      <c r="K39" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="66" t="s">
+      <c r="L39" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="56" t="s">
+      <c r="M39" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="N39" s="56"/>
-      <c r="O39" s="66" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="P39" s="57" t="s">
+      <c r="P39" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="67">
+      <c r="Q39" s="61">
         <v>6</v>
       </c>
-      <c r="R39" s="68" t="s">
+      <c r="R39" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S39" s="68" t="s">
+      <c r="S39" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T39" s="68" t="s">
+      <c r="T39" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="U39" s="69" t="s">
+      <c r="U39" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="61" t="s">
+    <row r="40" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -4197,55 +4197,55 @@
       </c>
       <c r="E40" s="34"/>
       <c r="F40" s="35"/>
-      <c r="G40" s="62" t="s">
+      <c r="G40" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="H40" s="63">
+      <c r="H40" s="57">
         <v>35</v>
       </c>
-      <c r="I40" s="63" t="s">
+      <c r="I40" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J40" s="64" t="s">
+      <c r="J40" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="K40" s="65" t="s">
+      <c r="K40" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="66" t="s">
+      <c r="L40" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="56" t="s">
+      <c r="M40" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N40" s="56"/>
-      <c r="O40" s="66" t="s">
+      <c r="N40" s="50"/>
+      <c r="O40" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="P40" s="57" t="s">
+      <c r="P40" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="67">
+      <c r="Q40" s="61">
         <v>6</v>
       </c>
-      <c r="R40" s="68" t="s">
+      <c r="R40" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S40" s="68" t="s">
+      <c r="S40" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T40" s="68" t="s">
+      <c r="T40" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="U40" s="69" t="s">
+      <c r="U40" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="61" t="s">
+    <row r="41" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -4256,55 +4256,55 @@
       </c>
       <c r="E41" s="34"/>
       <c r="F41" s="35"/>
-      <c r="G41" s="62" t="s">
+      <c r="G41" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="H41" s="63">
+      <c r="H41" s="57">
         <v>36</v>
       </c>
-      <c r="I41" s="63" t="s">
+      <c r="I41" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J41" s="64" t="s">
+      <c r="J41" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="K41" s="65" t="s">
+      <c r="K41" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L41" s="66" t="s">
+      <c r="L41" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="56" t="s">
+      <c r="M41" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="N41" s="56"/>
-      <c r="O41" s="66" t="s">
+      <c r="N41" s="50"/>
+      <c r="O41" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="P41" s="57" t="s">
+      <c r="P41" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="67">
+      <c r="Q41" s="61">
         <v>6</v>
       </c>
-      <c r="R41" s="68" t="s">
+      <c r="R41" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S41" s="68" t="s">
+      <c r="S41" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T41" s="68" t="s">
+      <c r="T41" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="U41" s="69" t="s">
+      <c r="U41" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="61" t="s">
+    <row r="42" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="31" t="s">
@@ -4315,53 +4315,53 @@
       </c>
       <c r="E42" s="34"/>
       <c r="F42" s="35"/>
-      <c r="G42" s="62" t="s">
+      <c r="G42" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="H42" s="63">
+      <c r="H42" s="57">
         <v>37</v>
       </c>
-      <c r="I42" s="63" t="s">
+      <c r="I42" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="64" t="s">
+      <c r="J42" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="K42" s="65" t="s">
+      <c r="K42" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="L42" s="66" t="s">
+      <c r="L42" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="66" t="s">
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="P42" s="57" t="s">
+      <c r="P42" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="67" t="s">
+      <c r="Q42" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="R42" s="68" t="s">
+      <c r="R42" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="S42" s="68" t="s">
+      <c r="S42" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="T42" s="68" t="s">
+      <c r="T42" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="U42" s="69" t="s">
+      <c r="U42" s="63" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="61" t="s">
+    <row r="43" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C43" s="31" t="s">
@@ -4372,41 +4372,41 @@
       </c>
       <c r="E43" s="34"/>
       <c r="F43" s="35"/>
-      <c r="G43" s="62" t="s">
+      <c r="G43" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="H43" s="63">
+      <c r="H43" s="57">
         <v>38</v>
       </c>
-      <c r="I43" s="63" t="s">
+      <c r="I43" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J43" s="64" t="s">
+      <c r="J43" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="K43" s="65" t="s">
+      <c r="K43" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="66" t="s">
+      <c r="L43" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="57" t="s">
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="68"/>
-      <c r="U43" s="69"/>
-    </row>
-    <row r="44" spans="1:21" s="71" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="61" t="s">
+      <c r="Q43" s="61"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="63"/>
+    </row>
+    <row r="44" spans="1:21" s="65" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="45" t="s">
         <v>90</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -4417,51 +4417,51 @@
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="35"/>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="H44" s="63">
+      <c r="H44" s="57">
         <v>39</v>
       </c>
-      <c r="I44" s="63" t="s">
+      <c r="I44" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J44" s="64" t="s">
+      <c r="J44" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="K44" s="65" t="s">
+      <c r="K44" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="66" t="s">
+      <c r="L44" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M44" s="56" t="s">
+      <c r="M44" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N44" s="56"/>
-      <c r="O44" s="66" t="s">
+      <c r="N44" s="50"/>
+      <c r="O44" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="P44" s="57" t="s">
+      <c r="P44" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="67">
+      <c r="Q44" s="61">
         <v>6</v>
       </c>
-      <c r="R44" s="68" t="s">
+      <c r="R44" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="S44" s="68" t="s">
+      <c r="S44" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="T44" s="68" t="s">
+      <c r="T44" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="U44" s="69" t="s">
+      <c r="U44" s="63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>68</v>
       </c>
@@ -4518,11 +4518,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="72" t="s">
+    <row r="46" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="67" t="s">
         <v>90</v>
       </c>
       <c r="C46" s="39" t="s">
@@ -4533,1111 +4533,1111 @@
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="42"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="75">
+      <c r="G46" s="68"/>
+      <c r="H46" s="69">
         <v>40</v>
       </c>
-      <c r="I46" s="75" t="s">
+      <c r="I46" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="J46" s="76" t="s">
+      <c r="J46" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="K46" s="77" t="s">
+      <c r="K46" s="71" t="s">
         <v>69</v>
       </c>
       <c r="L46" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="M46" s="78" t="s">
+      <c r="M46" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="N46" s="78"/>
+      <c r="N46" s="72"/>
       <c r="O46" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="P46" s="79" t="s">
+      <c r="P46" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="80">
+      <c r="Q46" s="74">
         <v>6</v>
       </c>
-      <c r="R46" s="81" t="s">
+      <c r="R46" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="S46" s="81" t="s">
+      <c r="S46" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="T46" s="81" t="s">
+      <c r="T46" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="U46" s="82" t="s">
+      <c r="U46" s="76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="61"/>
-      <c r="B47" s="83"/>
+    <row r="47" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="32"/>
       <c r="D47" s="29"/>
       <c r="E47" s="34"/>
       <c r="F47" s="35"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="68"/>
-      <c r="U47" s="69"/>
-    </row>
-    <row r="48" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="61"/>
-      <c r="B48" s="83"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="63"/>
+    </row>
+    <row r="48" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55"/>
+      <c r="B48" s="77"/>
       <c r="C48" s="32"/>
       <c r="D48" s="29"/>
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="69"/>
-    </row>
-    <row r="49" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="61"/>
-      <c r="B49" s="83"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="63"/>
+    </row>
+    <row r="49" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="32"/>
       <c r="D49" s="29"/>
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="69"/>
-    </row>
-    <row r="50" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="61"/>
-      <c r="B50" s="83"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="63"/>
+    </row>
+    <row r="50" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="32"/>
       <c r="D50" s="29"/>
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="68"/>
-      <c r="T50" s="68"/>
-      <c r="U50" s="69"/>
-    </row>
-    <row r="51" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="61"/>
-      <c r="B51" s="83"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="62"/>
+      <c r="U50" s="63"/>
+    </row>
+    <row r="51" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55"/>
+      <c r="B51" s="77"/>
       <c r="C51" s="32"/>
       <c r="D51" s="29"/>
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="68"/>
-      <c r="S51" s="68"/>
-      <c r="T51" s="68"/>
-      <c r="U51" s="69"/>
-    </row>
-    <row r="52" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="61"/>
-      <c r="B52" s="83"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="63"/>
+    </row>
+    <row r="52" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="55"/>
+      <c r="B52" s="77"/>
       <c r="C52" s="32"/>
       <c r="D52" s="29"/>
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="67"/>
-      <c r="R52" s="68"/>
-      <c r="S52" s="68"/>
-      <c r="T52" s="68"/>
-      <c r="U52" s="69"/>
-    </row>
-    <row r="53" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="61"/>
-      <c r="B53" s="83"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="63"/>
+    </row>
+    <row r="53" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55"/>
+      <c r="B53" s="77"/>
       <c r="C53" s="32"/>
       <c r="D53" s="29"/>
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="68"/>
-      <c r="S53" s="68"/>
-      <c r="T53" s="68"/>
-      <c r="U53" s="69"/>
-    </row>
-    <row r="54" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="61"/>
-      <c r="B54" s="83"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="63"/>
+    </row>
+    <row r="54" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55"/>
+      <c r="B54" s="77"/>
       <c r="C54" s="32"/>
       <c r="D54" s="29"/>
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="68"/>
-      <c r="T54" s="68"/>
-      <c r="U54" s="69"/>
-    </row>
-    <row r="55" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="61"/>
-      <c r="B55" s="83"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="63"/>
+    </row>
+    <row r="55" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55"/>
+      <c r="B55" s="77"/>
       <c r="C55" s="32"/>
       <c r="D55" s="29"/>
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="67"/>
-      <c r="R55" s="68"/>
-      <c r="S55" s="68"/>
-      <c r="T55" s="68"/>
-      <c r="U55" s="69"/>
-    </row>
-    <row r="56" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="61"/>
-      <c r="B56" s="83"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="63"/>
+    </row>
+    <row r="56" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="77"/>
       <c r="C56" s="32"/>
       <c r="D56" s="29"/>
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="69"/>
-    </row>
-    <row r="57" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="61"/>
-      <c r="B57" s="83"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="63"/>
+    </row>
+    <row r="57" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+      <c r="B57" s="77"/>
       <c r="C57" s="32"/>
       <c r="D57" s="29"/>
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="66"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="66"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="69"/>
-    </row>
-    <row r="58" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="61"/>
-      <c r="B58" s="83"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="63"/>
+    </row>
+    <row r="58" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="77"/>
       <c r="C58" s="32"/>
       <c r="D58" s="29"/>
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="66"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="66"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="69"/>
-    </row>
-    <row r="59" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="61"/>
-      <c r="B59" s="83"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="61"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="62"/>
+      <c r="T58" s="62"/>
+      <c r="U58" s="63"/>
+    </row>
+    <row r="59" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55"/>
+      <c r="B59" s="77"/>
       <c r="C59" s="32"/>
       <c r="D59" s="29"/>
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="69"/>
-    </row>
-    <row r="60" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="61"/>
-      <c r="B60" s="83"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="62"/>
+      <c r="U59" s="63"/>
+    </row>
+    <row r="60" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55"/>
+      <c r="B60" s="77"/>
       <c r="C60" s="32"/>
       <c r="D60" s="29"/>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="69"/>
-    </row>
-    <row r="61" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="61"/>
-      <c r="B61" s="83"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="62"/>
+      <c r="T60" s="62"/>
+      <c r="U60" s="63"/>
+    </row>
+    <row r="61" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55"/>
+      <c r="B61" s="77"/>
       <c r="C61" s="32"/>
       <c r="D61" s="29"/>
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="66"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="69"/>
-    </row>
-    <row r="62" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="61"/>
-      <c r="B62" s="83"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="63"/>
+    </row>
+    <row r="62" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
+      <c r="B62" s="77"/>
       <c r="C62" s="32"/>
       <c r="D62" s="29"/>
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="66"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
-      <c r="T62" s="68"/>
-      <c r="U62" s="69"/>
-    </row>
-    <row r="63" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="61"/>
-      <c r="B63" s="83"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="60"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="63"/>
+    </row>
+    <row r="63" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55"/>
+      <c r="B63" s="77"/>
       <c r="C63" s="32"/>
       <c r="D63" s="29"/>
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="66"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="69"/>
-    </row>
-    <row r="64" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="61"/>
-      <c r="B64" s="83"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="60"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="63"/>
+    </row>
+    <row r="64" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="77"/>
       <c r="C64" s="32"/>
       <c r="D64" s="29"/>
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="68"/>
-      <c r="S64" s="68"/>
-      <c r="T64" s="68"/>
-      <c r="U64" s="69"/>
-    </row>
-    <row r="65" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="61"/>
-      <c r="B65" s="83"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="62"/>
+      <c r="U64" s="63"/>
+    </row>
+    <row r="65" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55"/>
+      <c r="B65" s="77"/>
       <c r="C65" s="32"/>
       <c r="D65" s="29"/>
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="68"/>
-      <c r="S65" s="68"/>
-      <c r="T65" s="68"/>
-      <c r="U65" s="69"/>
-    </row>
-    <row r="66" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="61"/>
-      <c r="B66" s="83"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="60"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="62"/>
+      <c r="U65" s="63"/>
+    </row>
+    <row r="66" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55"/>
+      <c r="B66" s="77"/>
       <c r="C66" s="32"/>
       <c r="D66" s="29"/>
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="66"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="68"/>
-      <c r="S66" s="68"/>
-      <c r="T66" s="68"/>
-      <c r="U66" s="69"/>
-    </row>
-    <row r="67" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="61"/>
-      <c r="B67" s="83"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="60"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="62"/>
+      <c r="S66" s="62"/>
+      <c r="T66" s="62"/>
+      <c r="U66" s="63"/>
+    </row>
+    <row r="67" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="55"/>
+      <c r="B67" s="77"/>
       <c r="C67" s="32"/>
       <c r="D67" s="29"/>
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="67"/>
-      <c r="R67" s="68"/>
-      <c r="S67" s="68"/>
-      <c r="T67" s="68"/>
-      <c r="U67" s="69"/>
-    </row>
-    <row r="68" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="61"/>
-      <c r="B68" s="83"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="60"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="62"/>
+      <c r="U67" s="63"/>
+    </row>
+    <row r="68" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="55"/>
+      <c r="B68" s="77"/>
       <c r="C68" s="32"/>
       <c r="D68" s="29"/>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="64"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="57"/>
-      <c r="Q68" s="67"/>
-      <c r="R68" s="68"/>
-      <c r="S68" s="68"/>
-      <c r="T68" s="68"/>
-      <c r="U68" s="69"/>
-    </row>
-    <row r="69" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="61"/>
-      <c r="B69" s="83"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="60"/>
+      <c r="P68" s="51"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="62"/>
+      <c r="S68" s="62"/>
+      <c r="T68" s="62"/>
+      <c r="U68" s="63"/>
+    </row>
+    <row r="69" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="55"/>
+      <c r="B69" s="77"/>
       <c r="C69" s="32"/>
       <c r="D69" s="29"/>
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="66"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="66"/>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="67"/>
-      <c r="R69" s="68"/>
-      <c r="S69" s="68"/>
-      <c r="T69" s="68"/>
-      <c r="U69" s="69"/>
-    </row>
-    <row r="70" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="61"/>
-      <c r="B70" s="83"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="62"/>
+      <c r="U69" s="63"/>
+    </row>
+    <row r="70" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="55"/>
+      <c r="B70" s="77"/>
       <c r="C70" s="32"/>
       <c r="D70" s="29"/>
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="64"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="66"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="66"/>
-      <c r="P70" s="57"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="68"/>
-      <c r="S70" s="68"/>
-      <c r="T70" s="68"/>
-      <c r="U70" s="69"/>
-    </row>
-    <row r="71" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="61"/>
-      <c r="B71" s="83"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="60"/>
+      <c r="P70" s="51"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="62"/>
+      <c r="S70" s="62"/>
+      <c r="T70" s="62"/>
+      <c r="U70" s="63"/>
+    </row>
+    <row r="71" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="55"/>
+      <c r="B71" s="77"/>
       <c r="C71" s="32"/>
       <c r="D71" s="29"/>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="66"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="66"/>
-      <c r="P71" s="57"/>
-      <c r="Q71" s="67"/>
-      <c r="R71" s="68"/>
-      <c r="S71" s="68"/>
-      <c r="T71" s="68"/>
-      <c r="U71" s="69"/>
-    </row>
-    <row r="72" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="61"/>
-      <c r="B72" s="83"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="60"/>
+      <c r="P71" s="51"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="62"/>
+      <c r="S71" s="62"/>
+      <c r="T71" s="62"/>
+      <c r="U71" s="63"/>
+    </row>
+    <row r="72" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="55"/>
+      <c r="B72" s="77"/>
       <c r="C72" s="32"/>
       <c r="D72" s="29"/>
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="64"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="66"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="66"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="67"/>
-      <c r="R72" s="68"/>
-      <c r="S72" s="68"/>
-      <c r="T72" s="68"/>
-      <c r="U72" s="69"/>
-    </row>
-    <row r="73" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="61"/>
-      <c r="B73" s="83"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="60"/>
+      <c r="P72" s="51"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="62"/>
+      <c r="S72" s="62"/>
+      <c r="T72" s="62"/>
+      <c r="U72" s="63"/>
+    </row>
+    <row r="73" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="55"/>
+      <c r="B73" s="77"/>
       <c r="C73" s="32"/>
       <c r="D73" s="29"/>
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="66"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="68"/>
-      <c r="S73" s="68"/>
-      <c r="T73" s="68"/>
-      <c r="U73" s="69"/>
-    </row>
-    <row r="74" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="61"/>
-      <c r="B74" s="83"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="60"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="62"/>
+      <c r="S73" s="62"/>
+      <c r="T73" s="62"/>
+      <c r="U73" s="63"/>
+    </row>
+    <row r="74" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="55"/>
+      <c r="B74" s="77"/>
       <c r="C74" s="32"/>
       <c r="D74" s="29"/>
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="64"/>
-      <c r="K74" s="65"/>
-      <c r="L74" s="66"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="66"/>
-      <c r="P74" s="57"/>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="68"/>
-      <c r="S74" s="68"/>
-      <c r="T74" s="68"/>
-      <c r="U74" s="69"/>
-    </row>
-    <row r="75" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="61"/>
-      <c r="B75" s="83"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="60"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="62"/>
+      <c r="S74" s="62"/>
+      <c r="T74" s="62"/>
+      <c r="U74" s="63"/>
+    </row>
+    <row r="75" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="55"/>
+      <c r="B75" s="77"/>
       <c r="C75" s="32"/>
       <c r="D75" s="29"/>
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="66"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="66"/>
-      <c r="P75" s="57"/>
-      <c r="Q75" s="67"/>
-      <c r="R75" s="68"/>
-      <c r="S75" s="68"/>
-      <c r="T75" s="68"/>
-      <c r="U75" s="69"/>
-    </row>
-    <row r="76" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="61"/>
-      <c r="B76" s="83"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="60"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="62"/>
+      <c r="S75" s="62"/>
+      <c r="T75" s="62"/>
+      <c r="U75" s="63"/>
+    </row>
+    <row r="76" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="55"/>
+      <c r="B76" s="77"/>
       <c r="C76" s="32"/>
       <c r="D76" s="29"/>
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="64"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="66"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="67"/>
-      <c r="R76" s="68"/>
-      <c r="S76" s="68"/>
-      <c r="T76" s="68"/>
-      <c r="U76" s="69"/>
-    </row>
-    <row r="77" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="61"/>
-      <c r="B77" s="83"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="60"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="62"/>
+      <c r="S76" s="62"/>
+      <c r="T76" s="62"/>
+      <c r="U76" s="63"/>
+    </row>
+    <row r="77" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="55"/>
+      <c r="B77" s="77"/>
       <c r="C77" s="32"/>
       <c r="D77" s="29"/>
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="64"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="66"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="57"/>
-      <c r="Q77" s="67"/>
-      <c r="R77" s="68"/>
-      <c r="S77" s="68"/>
-      <c r="T77" s="68"/>
-      <c r="U77" s="69"/>
-    </row>
-    <row r="78" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="61"/>
-      <c r="B78" s="83"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="62"/>
+      <c r="S77" s="62"/>
+      <c r="T77" s="62"/>
+      <c r="U77" s="63"/>
+    </row>
+    <row r="78" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="55"/>
+      <c r="B78" s="77"/>
       <c r="C78" s="32"/>
       <c r="D78" s="29"/>
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="64"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="66"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="66"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="67"/>
-      <c r="R78" s="68"/>
-      <c r="S78" s="68"/>
-      <c r="T78" s="68"/>
-      <c r="U78" s="69"/>
-    </row>
-    <row r="79" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="61"/>
-      <c r="B79" s="83"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="60"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="62"/>
+      <c r="S78" s="62"/>
+      <c r="T78" s="62"/>
+      <c r="U78" s="63"/>
+    </row>
+    <row r="79" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="55"/>
+      <c r="B79" s="77"/>
       <c r="C79" s="32"/>
       <c r="D79" s="29"/>
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="66"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="66"/>
-      <c r="P79" s="57"/>
-      <c r="Q79" s="67"/>
-      <c r="R79" s="68"/>
-      <c r="S79" s="68"/>
-      <c r="T79" s="68"/>
-      <c r="U79" s="69"/>
-    </row>
-    <row r="80" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="61"/>
-      <c r="B80" s="83"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="60"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="61"/>
+      <c r="R79" s="62"/>
+      <c r="S79" s="62"/>
+      <c r="T79" s="62"/>
+      <c r="U79" s="63"/>
+    </row>
+    <row r="80" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="55"/>
+      <c r="B80" s="77"/>
       <c r="C80" s="32"/>
       <c r="D80" s="29"/>
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="66"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="66"/>
-      <c r="P80" s="57"/>
-      <c r="Q80" s="67"/>
-      <c r="R80" s="68"/>
-      <c r="S80" s="68"/>
-      <c r="T80" s="68"/>
-      <c r="U80" s="69"/>
-    </row>
-    <row r="81" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="61"/>
-      <c r="B81" s="83"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="59"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="60"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="62"/>
+      <c r="S80" s="62"/>
+      <c r="T80" s="62"/>
+      <c r="U80" s="63"/>
+    </row>
+    <row r="81" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="55"/>
+      <c r="B81" s="77"/>
       <c r="C81" s="32"/>
       <c r="D81" s="29"/>
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="66"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="66"/>
-      <c r="P81" s="57"/>
-      <c r="Q81" s="67"/>
-      <c r="R81" s="68"/>
-      <c r="S81" s="68"/>
-      <c r="T81" s="68"/>
-      <c r="U81" s="69"/>
-    </row>
-    <row r="82" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="61"/>
-      <c r="B82" s="83"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="50"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="60"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="62"/>
+      <c r="S81" s="62"/>
+      <c r="T81" s="62"/>
+      <c r="U81" s="63"/>
+    </row>
+    <row r="82" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="55"/>
+      <c r="B82" s="77"/>
       <c r="C82" s="32"/>
       <c r="D82" s="29"/>
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="64"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="66"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="66"/>
-      <c r="P82" s="57"/>
-      <c r="Q82" s="67"/>
-      <c r="R82" s="68"/>
-      <c r="S82" s="68"/>
-      <c r="T82" s="68"/>
-      <c r="U82" s="69"/>
-    </row>
-    <row r="83" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="61"/>
-      <c r="B83" s="83"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="59"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="50"/>
+      <c r="O82" s="60"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="62"/>
+      <c r="S82" s="62"/>
+      <c r="T82" s="62"/>
+      <c r="U82" s="63"/>
+    </row>
+    <row r="83" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="55"/>
+      <c r="B83" s="77"/>
       <c r="C83" s="32"/>
       <c r="D83" s="29"/>
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="66"/>
-      <c r="P83" s="57"/>
-      <c r="Q83" s="67"/>
-      <c r="R83" s="68"/>
-      <c r="S83" s="68"/>
-      <c r="T83" s="68"/>
-      <c r="U83" s="69"/>
-    </row>
-    <row r="84" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="61"/>
-      <c r="B84" s="83"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="59"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="50"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="61"/>
+      <c r="R83" s="62"/>
+      <c r="S83" s="62"/>
+      <c r="T83" s="62"/>
+      <c r="U83" s="63"/>
+    </row>
+    <row r="84" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="55"/>
+      <c r="B84" s="77"/>
       <c r="C84" s="32"/>
       <c r="D84" s="29"/>
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="64"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="66"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="66"/>
-      <c r="P84" s="57"/>
-      <c r="Q84" s="67"/>
-      <c r="R84" s="68"/>
-      <c r="S84" s="68"/>
-      <c r="T84" s="68"/>
-      <c r="U84" s="69"/>
-    </row>
-    <row r="85" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="61"/>
-      <c r="B85" s="83"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="50"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="60"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="62"/>
+      <c r="S84" s="62"/>
+      <c r="T84" s="62"/>
+      <c r="U84" s="63"/>
+    </row>
+    <row r="85" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="55"/>
+      <c r="B85" s="77"/>
       <c r="C85" s="32"/>
       <c r="D85" s="29"/>
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="63"/>
-      <c r="I85" s="63"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="66"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="66"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="67"/>
-      <c r="R85" s="68"/>
-      <c r="S85" s="68"/>
-      <c r="T85" s="68"/>
-      <c r="U85" s="69"/>
-    </row>
-    <row r="86" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="61"/>
-      <c r="B86" s="83"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="50"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="60"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="62"/>
+      <c r="S85" s="62"/>
+      <c r="T85" s="62"/>
+      <c r="U85" s="63"/>
+    </row>
+    <row r="86" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="55"/>
+      <c r="B86" s="77"/>
       <c r="C86" s="32"/>
       <c r="D86" s="29"/>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="66"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="66"/>
-      <c r="P86" s="57"/>
-      <c r="Q86" s="67"/>
-      <c r="R86" s="68"/>
-      <c r="S86" s="68"/>
-      <c r="T86" s="68"/>
-      <c r="U86" s="69"/>
-    </row>
-    <row r="87" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="61"/>
-      <c r="B87" s="83"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="60"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="62"/>
+      <c r="S86" s="62"/>
+      <c r="T86" s="62"/>
+      <c r="U86" s="63"/>
+    </row>
+    <row r="87" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="55"/>
+      <c r="B87" s="77"/>
       <c r="C87" s="32"/>
       <c r="D87" s="29"/>
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="63"/>
-      <c r="I87" s="63"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="66"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="66"/>
-      <c r="P87" s="57"/>
-      <c r="Q87" s="67"/>
-      <c r="R87" s="68"/>
-      <c r="S87" s="68"/>
-      <c r="T87" s="68"/>
-      <c r="U87" s="69"/>
-    </row>
-    <row r="88" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="61"/>
-      <c r="B88" s="83"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="50"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="60"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="61"/>
+      <c r="R87" s="62"/>
+      <c r="S87" s="62"/>
+      <c r="T87" s="62"/>
+      <c r="U87" s="63"/>
+    </row>
+    <row r="88" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="55"/>
+      <c r="B88" s="77"/>
       <c r="C88" s="32"/>
       <c r="D88" s="29"/>
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="64"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="66"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="66"/>
-      <c r="P88" s="57"/>
-      <c r="Q88" s="67"/>
-      <c r="R88" s="68"/>
-      <c r="S88" s="68"/>
-      <c r="T88" s="68"/>
-      <c r="U88" s="69"/>
-    </row>
-    <row r="89" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="61"/>
-      <c r="B89" s="83"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="50"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="61"/>
+      <c r="R88" s="62"/>
+      <c r="S88" s="62"/>
+      <c r="T88" s="62"/>
+      <c r="U88" s="63"/>
+    </row>
+    <row r="89" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="55"/>
+      <c r="B89" s="77"/>
       <c r="C89" s="32"/>
       <c r="D89" s="29"/>
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
-      <c r="G89" s="62"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="63"/>
-      <c r="J89" s="64"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="66"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="66"/>
-      <c r="P89" s="57"/>
-      <c r="Q89" s="67"/>
-      <c r="R89" s="68"/>
-      <c r="S89" s="68"/>
-      <c r="T89" s="68"/>
-      <c r="U89" s="69"/>
-    </row>
-    <row r="90" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="61"/>
-      <c r="B90" s="83"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="50"/>
+      <c r="N89" s="50"/>
+      <c r="O89" s="60"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="62"/>
+      <c r="S89" s="62"/>
+      <c r="T89" s="62"/>
+      <c r="U89" s="63"/>
+    </row>
+    <row r="90" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="55"/>
+      <c r="B90" s="77"/>
       <c r="C90" s="32"/>
       <c r="D90" s="29"/>
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
-      <c r="G90" s="62"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="64"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="66"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="66"/>
-      <c r="P90" s="57"/>
-      <c r="Q90" s="67"/>
-      <c r="R90" s="68"/>
-      <c r="S90" s="68"/>
-      <c r="T90" s="68"/>
-      <c r="U90" s="69"/>
-    </row>
-    <row r="91" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="61"/>
-      <c r="B91" s="83"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="58"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="50"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="60"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="62"/>
+      <c r="S90" s="62"/>
+      <c r="T90" s="62"/>
+      <c r="U90" s="63"/>
+    </row>
+    <row r="91" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="55"/>
+      <c r="B91" s="77"/>
       <c r="C91" s="32"/>
       <c r="D91" s="29"/>
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
-      <c r="G91" s="62"/>
-      <c r="H91" s="63"/>
-      <c r="I91" s="63"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="65"/>
-      <c r="L91" s="66"/>
-      <c r="M91" s="56"/>
-      <c r="N91" s="56"/>
-      <c r="O91" s="66"/>
-      <c r="P91" s="57"/>
-      <c r="Q91" s="67"/>
-      <c r="R91" s="68"/>
-      <c r="S91" s="68"/>
-      <c r="T91" s="68"/>
-      <c r="U91" s="69"/>
-    </row>
-    <row r="92" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="61"/>
-      <c r="B92" s="83"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="50"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="61"/>
+      <c r="R91" s="62"/>
+      <c r="S91" s="62"/>
+      <c r="T91" s="62"/>
+      <c r="U91" s="63"/>
+    </row>
+    <row r="92" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="55"/>
+      <c r="B92" s="77"/>
       <c r="C92" s="32"/>
       <c r="D92" s="29"/>
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="63"/>
-      <c r="I92" s="63"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="65"/>
-      <c r="L92" s="66"/>
-      <c r="M92" s="56"/>
-      <c r="N92" s="56"/>
-      <c r="O92" s="66"/>
-      <c r="P92" s="57"/>
-      <c r="Q92" s="67"/>
-      <c r="R92" s="68"/>
-      <c r="S92" s="68"/>
-      <c r="T92" s="68"/>
-      <c r="U92" s="69"/>
-    </row>
-    <row r="93" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G92" s="56"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="50"/>
+      <c r="N92" s="50"/>
+      <c r="O92" s="60"/>
+      <c r="P92" s="51"/>
+      <c r="Q92" s="61"/>
+      <c r="R92" s="62"/>
+      <c r="S92" s="62"/>
+      <c r="T92" s="62"/>
+      <c r="U92" s="63"/>
+    </row>
+    <row r="93" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
-      <c r="G93" s="62"/>
-      <c r="N93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="N93" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U45">
@@ -5649,6 +5649,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -5664,11 +5669,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5728,16 +5728,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>34</v>
@@ -5781,7 +5781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>35</v>
@@ -5802,7 +5802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>36</v>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>37</v>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>38</v>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>39</v>
@@ -5864,7 +5864,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>40</v>
@@ -5877,7 +5877,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>41</v>
@@ -5890,7 +5890,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>42</v>
@@ -5903,7 +5903,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>43</v>
@@ -5918,7 +5918,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>44</v>
@@ -5933,7 +5933,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>45</v>
@@ -5948,7 +5948,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>46</v>
@@ -5963,7 +5963,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -5976,7 +5976,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
@@ -5989,7 +5989,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
@@ -6002,7 +6002,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
@@ -6015,7 +6015,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
@@ -6028,7 +6028,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -6041,7 +6041,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
@@ -6054,7 +6054,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
@@ -6067,7 +6067,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -6080,7 +6080,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
@@ -6093,7 +6093,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
@@ -6104,7 +6104,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
@@ -6115,7 +6115,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
@@ -6126,7 +6126,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
@@ -6137,7 +6137,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
@@ -6148,7 +6148,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
@@ -6159,7 +6159,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
@@ -6170,7 +6170,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
@@ -6181,7 +6181,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
@@ -6192,7 +6192,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
@@ -6203,7 +6203,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
@@ -6214,7 +6214,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
@@ -6225,7 +6225,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="5" t="s">
@@ -6236,7 +6236,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -6247,7 +6247,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -6258,7 +6258,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6267,7 +6267,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6276,7 +6276,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6285,7 +6285,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -6294,7 +6294,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6303,7 +6303,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6312,7 +6312,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6321,7 +6321,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6330,7 +6330,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -6339,7 +6339,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -6348,7 +6348,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
